--- a/docs/requirements/Master Data Tables - Test Data/master-reason_list.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-reason_list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="63">
   <si>
     <t>code</t>
   </si>
@@ -156,15 +156,9 @@
     <t>يتم مطابقة جميع التفاصيل</t>
   </si>
   <si>
-    <t>جميع "تفاصيل ديموغرافية" هي مطابقة</t>
-  </si>
-  <si>
     <t>إلا الصورة هي مطابقة</t>
   </si>
   <si>
-    <t>بعض "التفاصيل الديمغرافية" هي مطابقة</t>
-  </si>
-  <si>
     <t>Décalage de lâge-Photo</t>
   </si>
   <si>
@@ -202,6 +196,18 @@
   </si>
   <si>
     <t>Certains détails démographiques sont Matching</t>
+  </si>
+  <si>
+    <t>جميع تفاصيل ديموغرافية هي مطابقة</t>
+  </si>
+  <si>
+    <t>ara</t>
+  </si>
+  <si>
+    <t>fra</t>
+  </si>
+  <si>
+    <t>بعض التفاصيل الديمغرافية هي مطابقة</t>
   </si>
 </sst>
 </file>
@@ -1044,9 +1050,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1322,7 +1334,7 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -1348,7 +1360,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -1374,7 +1386,7 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -1400,7 +1412,7 @@
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -1426,7 +1438,7 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -1452,7 +1464,7 @@
         <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -1469,16 +1481,16 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
         <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -1495,16 +1507,16 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
         <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -1521,16 +1533,16 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
         <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
@@ -1547,16 +1559,16 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -1573,16 +1585,16 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -1599,16 +1611,16 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -1625,16 +1637,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -1651,16 +1663,16 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
@@ -1677,16 +1689,16 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
@@ -1703,16 +1715,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
         <v>28</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
@@ -1729,16 +1741,16 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
         <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
@@ -1755,16 +1767,16 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
         <v>28</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
@@ -1778,5 +1790,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>